--- a/flowchart.xlsx
+++ b/flowchart.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\GitHub\towers_of_hanoi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Source</t>
   </si>
@@ -325,6 +330,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -652,20 +665,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -693,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>8</v>
       </c>
@@ -716,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -748,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="3" customFormat="1">
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -777,7 +790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="3" customFormat="1">
+    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -806,7 +819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>18</v>
       </c>
@@ -814,7 +827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -822,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -837,7 +850,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:19" s="3" customFormat="1">
+    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -854,12 +867,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1">
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -870,7 +883,7 @@
         <v>2147479540</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="3" customFormat="1">
+    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -881,7 +894,7 @@
         <v>2147479568</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="3" customFormat="1">
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -910,7 +923,7 @@
         <v>2147479560</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -921,7 +934,7 @@
         <v>2147479544</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -935,7 +948,7 @@
         <v>2147479560</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -952,17 +965,17 @@
         <v>2147479572</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F21" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -973,17 +986,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>1</v>
       </c>
@@ -994,17 +1012,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -1023,12 +1041,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="3" customFormat="1">
+    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="3" customFormat="1">
+    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1"/>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/flowchart.xlsx
+++ b/flowchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\GitHub\towers_of_hanoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\GitHub\hanoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -180,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -207,17 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -238,10 +227,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -251,15 +240,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -268,7 +248,53 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -281,7 +307,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -290,22 +318,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -394,26 +411,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1230,366 +1247,513 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="3"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="3"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
       <c r="C15" s="6">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
       <c r="C19" s="6">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>5</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6">
-        <v>2</v>
-      </c>
-      <c r="E23" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
         <v>6</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
       <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2</v>
-      </c>
-      <c r="E27" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
         <v>7</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="D30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
         <v>8</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
